--- a/tables/SupplementalTables_Annotation.xlsx
+++ b/tables/SupplementalTables_Annotation.xlsx
@@ -12,26 +12,26 @@
     <sheet name="TableS5_annot" sheetId="3" r:id="rId3"/>
     <sheet name="TableS6_annot" sheetId="4" r:id="rId4"/>
     <sheet name="TableS7_annot" sheetId="5" r:id="rId5"/>
-    <sheet name="TableS8_annot" sheetId="6" r:id="rId6"/>
-    <sheet name="TableS9_annot" sheetId="7" r:id="rId7"/>
-    <sheet name="TableS10_annot" sheetId="8" r:id="rId8"/>
+    <sheet name="TableS9_annot" sheetId="6" r:id="rId6"/>
+    <sheet name="TableS10_annot" sheetId="7" r:id="rId7"/>
+    <sheet name="TableS11_annot" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS10_annot!$A$1:$B$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableS3_annot!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS10_annot!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS11_annot!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableS3_annot!$A$1:$B$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TableS4_annot!$A$1:$B$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TableS5_annot!$A$1:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TableS6_annot!$A$1:$B$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS7_annot!$A$1:$B$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS8_annot!$A$1:$B$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS9_annot!$A$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS7_annot!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS9_annot!$A$1:$B$22</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="339">
   <si>
     <t>column</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Number of SNPs after QC (filtering for number of studies &gt;=10, imputation info score &gt;=0.8, minor allele frequency &gt;=0.02, heterogeneity I^2 &lt;=0.8)</t>
   </si>
   <si>
-    <t>lambda_filtered</t>
-  </si>
-  <si>
-    <t>Inflation factor lambda after QC</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -588,45 +582,18 @@
     <t>HGNC (Ensembl) full name of nearest gene that actually has got a full name</t>
   </si>
   <si>
-    <t>Eigen</t>
-  </si>
-  <si>
-    <t>Eigen is a spectral approach to the functional annotation of genetic variants in coding and noncoding regions. Eigen makes use of a variety of functional annotations in both coding and noncoding regions (such as made available by the ENCODE and Roadmap Epigenomics projects), and combines them into one single measure of functional importance. Eigen is an unsupervised approach, and, unlike most existing methods, is not based on any labelled training data. Eigen produces estimates of predictive accuracy for each functional annotation score, and subsequently uses these estimates of accuracy to derive the aggregate functional score for variants of interest as a weighted linear combination of individual annotations. We show that the resulting meta-score has good discriminatory ability using disease associated and putatively benign variants from published studies (for both Mendelian and complex diseases). The Eigen score is particularly useful in prioritizing likely causal variants in a region of interest when it is combined with population-level genetic data in the framework of a hierarchical model. Furthermore, an important advantage of the Eigen score is that it can be easily adapted to a specific tissue or cell type. More information about the Eigen score can be found in the accompanying manuscript: A spectral approach integrating functional genomic annotations for coding and noncoding variants (Iuliana Ionita-Laza, Kenneth McCallum, Bin Xu, Joseph Buxbaum). and possible confounding factors; therefore, Eigen is a more robust approach at this point.</t>
-  </si>
-  <si>
-    <t>EigenPC</t>
-  </si>
-  <si>
-    <t>Eigen-PC performs well across many scenarios, although, as we discuss in the Supplementary Note, it is more sensitive than Eigen to component annotations and possible confounding factors; therefore, Eigen is a more robust approach at this point.</t>
-  </si>
-  <si>
     <t>CADD_scaled</t>
   </si>
   <si>
     <t>PHRED-like (-10*log10(rank/total)) scaled C-score ranking a variant relative to all possible substitutions of the human genome (8.6x10^9). For details see tab 'deleteriousness'.  Like explained above, a scaled C-score of greater or# equal 10 indicates that these are predicted to be the 10% most deleterious substitutions that you can do to the human genome, a score of greater or equal 20 indicates the 1% most deleterious and so on. If you would like to apply a cutoff on deleteriousness, eg to identify potentially pathogenic variants, we would suggest to put a cutoff somewhere between 10 and 20. Maybe at 15, as this also happens to be the median value for all possible canonical splice site changes and non-synonymous variants. However, there is not a natural choice here -- it is always arbitrary. We therefore recommend integrating C-scores with other evidence and to rank your candidates for follow up rather than hard filtering.</t>
   </si>
   <si>
-    <t>DANN</t>
-  </si>
-  <si>
-    <t>DANN score, similar to CADD, but prediction made using a non-linear kernel function instead of a linear.</t>
-  </si>
-  <si>
-    <t>GWAVA_Region</t>
+    <t>regulome_score</t>
   </si>
   <si>
     <t>Deleteriousness / functional variant relevance score</t>
   </si>
   <si>
-    <t>GWAVA_TSS</t>
-  </si>
-  <si>
-    <t>GWAVA_Unmatched</t>
-  </si>
-  <si>
-    <t>regulome_score</t>
-  </si>
-  <si>
     <t>regulome_score_numeric</t>
   </si>
   <si>
@@ -645,28 +612,10 @@
     <t>cis-eQTL genes for which reported eQTL-SNP has specified min R2 with marker in SNP</t>
   </si>
   <si>
-    <t>transgene</t>
-  </si>
-  <si>
-    <t>trans-eQTL genes for which reported eQTL-SNP has specified min R2 with marker in SNP</t>
-  </si>
-  <si>
     <t>coremine_genes</t>
   </si>
   <si>
-    <t>List of all genes reported for marker in SNP in nearest genes, cis-eQTL genes and trans-eQTL genes</t>
-  </si>
-  <si>
-    <t>hgnc4pathway</t>
-  </si>
-  <si>
-    <t>corresponding HGNC names for pathway genes used</t>
-  </si>
-  <si>
-    <t>entrez4pathway</t>
-  </si>
-  <si>
-    <t>Genes used for pathway enrichment actually used</t>
+    <t>List of all genes reported for marker in SNP in nearest genes, and cis-eQTL genes</t>
   </si>
   <si>
     <t>KEGG</t>
@@ -693,36 +642,6 @@
     <t>Analysis for nominally significant enrichment of genes in  nearest genes, cis-eQTL genes and trans-eQTL genes according to pathway enrichment specific settings in GO categories pathways</t>
   </si>
   <si>
-    <t>tissues</t>
-  </si>
-  <si>
-    <t>Analysis for nominally significant enrichment of genes in  nearest genes, cis-eQTL genes and trans-eQTL genes in high expressed genes of several tissues according to pathway enrichment specific settings</t>
-  </si>
-  <si>
-    <t>GWAMA_phenotype</t>
-  </si>
-  <si>
-    <t>gene</t>
-  </si>
-  <si>
-    <t>Analyzed gene expression of GTEx of NEPTUNE</t>
-  </si>
-  <si>
-    <t>tissue</t>
-  </si>
-  <si>
-    <t>Analyzed tissue for gene expression</t>
-  </si>
-  <si>
-    <t>Number of SNPs included in co-localization analysis per region</t>
-  </si>
-  <si>
-    <t>Posterior probability for hypothesis 1: only trait 1 associated (CKDGen)</t>
-  </si>
-  <si>
-    <t>Posterior probability for hypothesis 2: only trait 2 associated (gene expression)</t>
-  </si>
-  <si>
     <t>region according to locus definition (see Table 1)</t>
   </si>
   <si>
@@ -753,10 +672,7 @@
     <t>TRUE/FALSE vector indicating successful replication in HUNT</t>
   </si>
   <si>
-    <t>NStudies_CKDGen</t>
-  </si>
-  <si>
-    <t>number of studies included in CKDGen Meta analysis for eGFR</t>
+    <t>subgroup analyzed in CKDGen (ALL, MALE, or FEMALE)</t>
   </si>
   <si>
     <t>NSamples_CKDGen</t>
@@ -897,136 +813,241 @@
     <t>P-value in looked-up study</t>
   </si>
   <si>
-    <t>eGFR.N</t>
-  </si>
-  <si>
-    <t>Sample size in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.effect_allele</t>
-  </si>
-  <si>
-    <t>Effect allele in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.EAF</t>
-  </si>
-  <si>
-    <t>Effect allele frquency in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.infoScore</t>
-  </si>
-  <si>
-    <t>Weighted imputation info score in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.I2</t>
-  </si>
-  <si>
-    <t>Heterogeneity I^2 in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.beta</t>
-  </si>
-  <si>
-    <t>Beta estimate in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.SE</t>
-  </si>
-  <si>
-    <t>Standard error in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.P</t>
-  </si>
-  <si>
-    <t>P-value in eGFR ALL</t>
-  </si>
-  <si>
-    <t>eGFR.logP</t>
-  </si>
-  <si>
-    <t>-log10 transformed p-value in eGFR</t>
-  </si>
-  <si>
-    <t>eGFR.invalid_assoc</t>
-  </si>
-  <si>
-    <t>TRUE/FALSE flag indicating validity of SNP for eGFR ALL (F=valid)</t>
-  </si>
-  <si>
-    <t>eGFR.reason_for_exclusion</t>
-  </si>
-  <si>
-    <t>Reason to exclude SNP for eGFR ALL</t>
-  </si>
-  <si>
-    <t>UA.N</t>
-  </si>
-  <si>
-    <t>Sample size in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.effect_allele</t>
-  </si>
-  <si>
-    <t>Effect allele in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.EAF</t>
-  </si>
-  <si>
-    <t>Effect allele frquency in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.infoScore</t>
-  </si>
-  <si>
-    <t>Weighted imputation info score in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.I2</t>
-  </si>
-  <si>
-    <t>Heterogeneity I^2 in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.beta</t>
-  </si>
-  <si>
-    <t>Beta estimate in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.SE</t>
-  </si>
-  <si>
-    <t>Standard error in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.P</t>
-  </si>
-  <si>
-    <t>P-value in UA ALL</t>
-  </si>
-  <si>
-    <t>UA.logP</t>
-  </si>
-  <si>
-    <t>-log10 transformed p-value in UA</t>
-  </si>
-  <si>
-    <t>UA.invalid_assoc</t>
-  </si>
-  <si>
-    <t>TRUE/FALSE flag indicating validity of SNP for UA ALL (F=valid)</t>
-  </si>
-  <si>
-    <t>UA.reason_for_exclusion</t>
-  </si>
-  <si>
-    <t>Reason to exclude SNP for UA ALL</t>
+    <t>OR or BETA</t>
+  </si>
+  <si>
+    <t>Odds ratio, Z-score or beta estimate in looked-up study</t>
+  </si>
+  <si>
+    <t>SNP_replicated</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE flag indicating successful replication in CKDGen</t>
+  </si>
+  <si>
+    <t>CKDGen phenotype used for replication</t>
+  </si>
+  <si>
+    <t>CKDGen_N</t>
+  </si>
+  <si>
+    <t>Sample size in CKDGen</t>
+  </si>
+  <si>
+    <t>CKDGen_EA</t>
+  </si>
+  <si>
+    <t>CKDGen_EAF</t>
+  </si>
+  <si>
+    <t>Effect allele frquency in CKDGen</t>
+  </si>
+  <si>
+    <t>CKDGen_infoScore</t>
+  </si>
+  <si>
+    <t>Weighted imputation info score in CKDGen</t>
+  </si>
+  <si>
+    <t>CKDGen_I2</t>
+  </si>
+  <si>
+    <t>Heterogeneity I^2 in CKDGen</t>
+  </si>
+  <si>
+    <t>CKDGen_beta</t>
+  </si>
+  <si>
+    <t>CKDGen_SE</t>
+  </si>
+  <si>
+    <t>CKDGen_P</t>
+  </si>
+  <si>
+    <t>CKDGen_logP</t>
+  </si>
+  <si>
+    <t>-log10 transformed p-value in CKDGen</t>
+  </si>
+  <si>
+    <t>CKDGen_invalid</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE flag indicating validity of SNP for CKDGen (F=valid)</t>
+  </si>
+  <si>
+    <t>CKDGen_reason</t>
+  </si>
+  <si>
+    <t>Reason to exclude SNP for CKDGen</t>
+  </si>
+  <si>
+    <t>SNP ID in CKDGen</t>
+  </si>
+  <si>
+    <t>MarkerName</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Base position (hg19)</t>
+  </si>
+  <si>
+    <t>Effect allele</t>
+  </si>
+  <si>
+    <t>NEA</t>
+  </si>
+  <si>
+    <t>Non-effect allele</t>
+  </si>
+  <si>
+    <t>EAF</t>
+  </si>
+  <si>
+    <t>Effect allele frequency</t>
+  </si>
+  <si>
+    <t>Nsample</t>
+  </si>
+  <si>
+    <t>Ncohort</t>
+  </si>
+  <si>
+    <t>Number of studies in CKDGen</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Effect direction across cohorts (+ if the effect allele effect was positive, - if negative, 0 if the effect was zero, ? if marker was not available in cohort)</t>
+  </si>
+  <si>
+    <t>beta_0</t>
+  </si>
+  <si>
+    <t>Effect of first PC of meta-regression</t>
+  </si>
+  <si>
+    <t>se_0</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of first PC of meta-regression</t>
+  </si>
+  <si>
+    <t>beta_1</t>
+  </si>
+  <si>
+    <t>Effect of second PC of meta-regression</t>
+  </si>
+  <si>
+    <t>se_1</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of second PC of meta-regression</t>
+  </si>
+  <si>
+    <t>beta_2</t>
+  </si>
+  <si>
+    <t>Effect of third PC of meta-regression</t>
+  </si>
+  <si>
+    <t>se_2</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of third PC of meta-regression</t>
+  </si>
+  <si>
+    <t>beta_3</t>
+  </si>
+  <si>
+    <t>Effect of fourth PC of meta-regression</t>
+  </si>
+  <si>
+    <t>se_3</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of fourth PC of meta-regression</t>
+  </si>
+  <si>
+    <t>chisq_association</t>
+  </si>
+  <si>
+    <t>Chisq value of the association</t>
+  </si>
+  <si>
+    <t>ndf_association</t>
+  </si>
+  <si>
+    <t>Number of degrees of freedom of the association</t>
+  </si>
+  <si>
+    <t>P-value_association</t>
+  </si>
+  <si>
+    <t>P-value of the association</t>
+  </si>
+  <si>
+    <t>chisq_ancestry_het</t>
+  </si>
+  <si>
+    <t>Chisq value of the heterogeneity due to different ancestry</t>
+  </si>
+  <si>
+    <t>ndf_ancestry_het</t>
+  </si>
+  <si>
+    <t>Number of degrees of freedom of the heterogeneity due to different ancestry</t>
+  </si>
+  <si>
+    <t>P-value_ancestry_het</t>
+  </si>
+  <si>
+    <t>P-value of the heterogeneity due to different ancestry</t>
+  </si>
+  <si>
+    <t>chisq_residual_het</t>
+  </si>
+  <si>
+    <t>Chisq value of the residual heterogeneity</t>
+  </si>
+  <si>
+    <t>ndf_residual_het</t>
+  </si>
+  <si>
+    <t>Number of degrees of freedom  of the residual heterogeneity</t>
+  </si>
+  <si>
+    <t>P-value_residual_het</t>
+  </si>
+  <si>
+    <t>Pvalue of the residual heterogeneity</t>
+  </si>
+  <si>
+    <t>lnBF</t>
+  </si>
+  <si>
+    <t>Log of Bayes factor</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reason why marker was not analysed in MR-MEGA</t>
+  </si>
+  <si>
+    <t>invalid_assoc</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>Phenotype used in CKDGen</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1432,16 +1453,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B8"/>
+  <autoFilter ref="A1:B7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1467,178 +1480,178 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1668,282 +1681,282 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1973,34 +1986,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2013,98 +2026,98 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2128,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2142,207 +2155,207 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
         <v>194</v>
@@ -2350,18 +2363,18 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
         <v>198</v>
-      </c>
-      <c r="B30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2369,209 +2382,24 @@
         <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
         <v>202</v>
       </c>
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B42"/>
+  <autoFilter ref="A1:B32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B11"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -2592,174 +2420,383 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B22"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B24"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2785,250 +2822,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/tables/SupplementalTables_Annotation.xlsx
+++ b/tables/SupplementalTables_Annotation.xlsx
@@ -12,26 +12,28 @@
     <sheet name="TableS5_annot" sheetId="3" r:id="rId3"/>
     <sheet name="TableS6_annot" sheetId="4" r:id="rId4"/>
     <sheet name="TableS7_annot" sheetId="5" r:id="rId5"/>
-    <sheet name="TableS9_annot" sheetId="6" r:id="rId6"/>
-    <sheet name="TableS10_annot" sheetId="7" r:id="rId7"/>
-    <sheet name="TableS11_annot" sheetId="8" r:id="rId8"/>
+    <sheet name="TableS8_annot" sheetId="6" r:id="rId6"/>
+    <sheet name="TableS9_annot" sheetId="7" r:id="rId7"/>
+    <sheet name="TableS10_annot" sheetId="8" r:id="rId8"/>
+    <sheet name="TableS11_annot" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS10_annot!$A$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS11_annot!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS10_annot!$A$1:$B$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TableS11_annot!$A$1:$B$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableS3_annot!$A$1:$B$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TableS4_annot!$A$1:$B$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TableS5_annot!$A$1:$B$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TableS6_annot!$A$1:$B$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS7_annot!$A$1:$B$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS9_annot!$A$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS8_annot!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS9_annot!$A$1:$B$22</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="348">
   <si>
     <t>column</t>
   </si>
@@ -640,6 +642,33 @@
   </si>
   <si>
     <t>Analysis for nominally significant enrichment of genes in  nearest genes, cis-eQTL genes and trans-eQTL genes according to pathway enrichment specific settings in GO categories pathways</t>
+  </si>
+  <si>
+    <t>Genomic cytoband of gene</t>
+  </si>
+  <si>
+    <t>GWAMA_phenotype</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>Analyzed gene expression of GTEx or NEPTUNE</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>Analyzed tissue for gene expression</t>
+  </si>
+  <si>
+    <t>Number of SNPs included in co-localization analysis per region</t>
+  </si>
+  <si>
+    <t>Posterior probability for hypothesis 1: only trait 1 associated (CKDGen)</t>
+  </si>
+  <si>
+    <t>Posterior probability for hypothesis 2: only trait 2 associated (gene expression)</t>
   </si>
   <si>
     <t>region according to locus definition (see Table 1)</t>
@@ -2401,6 +2430,119 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,23 +2565,23 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2447,23 +2589,23 @@
         <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2471,119 +2613,119 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2592,7 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -2613,90 +2755,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2704,20 +2846,20 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
         <v>128</v>
@@ -2725,31 +2867,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
         <v>132</v>
@@ -2757,7 +2899,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
         <v>134</v>
@@ -2765,7 +2907,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
         <v>136</v>
@@ -2773,26 +2915,26 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -2825,247 +2967,247 @@
         <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B24" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B25" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B30" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/tables/SupplementalTables_Annotation.xlsx
+++ b/tables/SupplementalTables_Annotation.xlsx
@@ -16,24 +16,26 @@
     <sheet name="TableS9_annot" sheetId="7" r:id="rId7"/>
     <sheet name="TableS10_annot" sheetId="8" r:id="rId8"/>
     <sheet name="TableS11_annot" sheetId="9" r:id="rId9"/>
+    <sheet name="TableS12_annot" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS10_annot!$A$1:$B$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TableS11_annot!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TableS12_annot!$A$1:$B$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableS3_annot!$A$1:$B$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TableS4_annot!$A$1:$B$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TableS5_annot!$A$1:$B$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TableS6_annot!$A$1:$B$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS7_annot!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TableS6_annot!$A$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS7_annot!$A$1:$B$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS8_annot!$A$1:$B$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS9_annot!$A$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS9_annot!$A$1:$B$23</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="380">
   <si>
     <t>column</t>
   </si>
@@ -398,6 +400,12 @@
     <t>Range of tested region (not necessary centered around the index SNP)</t>
   </si>
   <si>
+    <t>CredSetSize</t>
+  </si>
+  <si>
+    <t>Number of SNPs in 99% credible set</t>
+  </si>
+  <si>
     <t>rsID</t>
   </si>
   <si>
@@ -548,16 +556,28 @@
     <t>Effect allele frquency</t>
   </si>
   <si>
-    <t>Beta estimate</t>
-  </si>
-  <si>
-    <t>Standard error</t>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Weighted Imputation info score</t>
+  </si>
+  <si>
+    <t>nSamples</t>
+  </si>
+  <si>
+    <t>Sample size per SNP</t>
+  </si>
+  <si>
+    <t>Beta estimate (conditional in case of region 9, 21, and 22 in setting ALL)</t>
+  </si>
+  <si>
+    <t>Standard error (conditional in case of region 9, 21, and 22 in setting ALL)</t>
   </si>
   <si>
     <t>logP</t>
   </si>
   <si>
-    <t>-log10 transformed p-value</t>
+    <t>-log10 transformed p-value (conditional in case of region 9, 21, and 22 in setting ALL)</t>
   </si>
   <si>
     <t>I2</t>
@@ -788,6 +808,12 @@
     <t>upper bound of the one-sided 95% confidence interval in HUNT study</t>
   </si>
   <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>power for replication, given the CKDGen statistics and the square-root of HUNT and CKDGen sample size ratio</t>
+  </si>
+  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -1077,6 +1103,78 @@
   </si>
   <si>
     <t>Phenotype used in CKDGen</t>
+  </si>
+  <si>
+    <t>SNP ID of the marker</t>
+  </si>
+  <si>
+    <t>Weighted imputation info score</t>
+  </si>
+  <si>
+    <t>Beta estimate in meta-analysis</t>
+  </si>
+  <si>
+    <t>Standard error in meta-analysis</t>
+  </si>
+  <si>
+    <t>-log10 transformed p-value in meta-analysis</t>
+  </si>
+  <si>
+    <t>Heterogenetity I-squared in meta-analysis</t>
+  </si>
+  <si>
+    <t>Effect of first PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of first PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Effect of second PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of second PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Effect of third PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of third PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Effect of fourth PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Standard error of the effect of fourth PC of meta-regression in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Chisq value of the association in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Number of degrees of freedom of the association in MR-MEGA</t>
+  </si>
+  <si>
+    <t>P-value of the association in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Chisq value of the heterogeneity due to different ancestry in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Number of degrees of freedom of the heterogeneity due to different ancestry in MR-MEGA</t>
+  </si>
+  <si>
+    <t>P-value of the heterogeneity due to different ancestry in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Chisq value of the residual heterogeneity in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Number of degrees of freedom  of the residual heterogeneity in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Pvalue of the residual heterogeneity in MR-MEGA</t>
+  </si>
+  <si>
+    <t>Log of Bayes factor in MR-MEGA</t>
   </si>
 </sst>
 </file>
@@ -1488,6 +1586,399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
@@ -1996,7 +2487,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2047,18 +2538,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2149,15 +2640,23 @@
         <v>148</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B18"/>
+  <autoFilter ref="A1:B19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2184,199 +2683,199 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
         <v>192</v>
@@ -2384,46 +2883,62 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32"/>
+  <autoFilter ref="A1:B34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2460,12 +2975,12 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2473,18 +2988,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2492,7 +3007,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2508,7 +3023,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2516,7 +3031,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2543,7 +3058,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2565,47 +3080,47 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2613,123 +3128,131 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B22"/>
+  <autoFilter ref="A1:B23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2755,90 +3278,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2846,95 +3369,95 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2964,250 +3487,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/tables/SupplementalTables_Annotation.xlsx
+++ b/tables/SupplementalTables_Annotation.xlsx
@@ -9,33 +9,35 @@
   <sheets>
     <sheet name="TableS3_annot" sheetId="1" r:id="rId1"/>
     <sheet name="TableS4_annot" sheetId="2" r:id="rId2"/>
-    <sheet name="TableS5_annot" sheetId="3" r:id="rId3"/>
-    <sheet name="TableS6_annot" sheetId="4" r:id="rId4"/>
-    <sheet name="TableS7_annot" sheetId="5" r:id="rId5"/>
-    <sheet name="TableS8_annot" sheetId="6" r:id="rId6"/>
-    <sheet name="TableS9_annot" sheetId="7" r:id="rId7"/>
-    <sheet name="TableS10_annot" sheetId="8" r:id="rId8"/>
-    <sheet name="TableS11_annot" sheetId="9" r:id="rId9"/>
-    <sheet name="TableS12_annot" sheetId="10" r:id="rId10"/>
+    <sheet name="TableS5_a_annot" sheetId="3" r:id="rId3"/>
+    <sheet name="TableS5_b_annot" sheetId="4" r:id="rId4"/>
+    <sheet name="TableS6_annot" sheetId="5" r:id="rId5"/>
+    <sheet name="TableS7_annot" sheetId="6" r:id="rId6"/>
+    <sheet name="TableS8_annot" sheetId="7" r:id="rId7"/>
+    <sheet name="TableS9_annot" sheetId="8" r:id="rId8"/>
+    <sheet name="TableS10_annot" sheetId="9" r:id="rId9"/>
+    <sheet name="TableS11_annot" sheetId="10" r:id="rId10"/>
+    <sheet name="TableS12_annot" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS10_annot!$A$1:$B$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TableS11_annot!$A$1:$B$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TableS12_annot!$A$1:$B$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TableS10_annot!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TableS11_annot!$A$1:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TableS12_annot!$A$1:$B$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableS3_annot!$A$1:$B$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TableS4_annot!$A$1:$B$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TableS5_annot!$A$1:$B$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TableS6_annot!$A$1:$B$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS7_annot!$A$1:$B$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS8_annot!$A$1:$B$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS9_annot!$A$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TableS5_a_annot!$A$1:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TableS5_b_annot!$A$1:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TableS6_annot!$A$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TableS7_annot!$A$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TableS8_annot!$A$1:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">TableS9_annot!$A$1:$B$23</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="344">
   <si>
     <t>column</t>
   </si>
@@ -79,10 +81,10 @@
     <t>Number of SNPs after QC (filtering for number of studies &gt;=10, imputation info score &gt;=0.8, minor allele frequency &gt;=0.02, heterogeneity I^2 &lt;=0.8)</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Number of associated region (1-15: eGFR, 16-22: UA)</t>
+    <t>locus_NR</t>
+  </si>
+  <si>
+    <t>Number of associated loci (1-15: eGFR, 16-22: UA)</t>
   </si>
   <si>
     <t>cytoband</t>
@@ -94,7 +96,7 @@
     <t>indexSNP</t>
   </si>
   <si>
-    <t>SNP with lowest p-value in this region</t>
+    <t>SNP with lowest p-value in this locus</t>
   </si>
   <si>
     <t>bestSetting</t>
@@ -211,193 +213,67 @@
     <t>Summary of co-localization result, using 0.75 as threshold</t>
   </si>
   <si>
-    <t>N_eGFR</t>
-  </si>
-  <si>
-    <t>Sample size in eGFR (using respective best setting)</t>
-  </si>
-  <si>
-    <t>EAF_eGFR</t>
-  </si>
-  <si>
-    <t>Effect allele frequency in eGFR (using respective best setting)</t>
-  </si>
-  <si>
-    <t>beta_eGFR</t>
-  </si>
-  <si>
-    <t>Beta estimate in eGFR (using respective best setting)</t>
-  </si>
-  <si>
-    <t>SE_eGFR</t>
-  </si>
-  <si>
-    <t>Standard error in eGFR (using respective best setting)</t>
-  </si>
-  <si>
-    <t>P_eGFR</t>
-  </si>
-  <si>
-    <t>P-value in eGFR (using respective best setting)</t>
+    <t>Number of associated locus (1-15: eGFR, 16-22: UA)</t>
   </si>
   <si>
     <t>N_BUN</t>
   </si>
   <si>
-    <t>Sample size in BUN (using respective best setting)</t>
+    <t>Sample size in phenotype indicated in column name (using respective best setting)</t>
   </si>
   <si>
     <t>EAF_BUN</t>
   </si>
   <si>
-    <t>Effect allele frequency in BUN (using respective best setting)</t>
+    <t>Effect allele frequency in phenotype indicated in column name (using respective best setting)</t>
   </si>
   <si>
     <t>beta_BUN</t>
   </si>
   <si>
-    <t>Beta estimate in BUN (using respective best setting)</t>
+    <t>Beta estimate in phenotype indicated in column name (using respective best setting)</t>
   </si>
   <si>
     <t>SE_BUN</t>
   </si>
   <si>
-    <t>Standard error in BUN (using respective best setting)</t>
+    <t>Standard error in phenotype indicated in column name (using respective best setting)</t>
   </si>
   <si>
     <t>P_BUN</t>
   </si>
   <si>
-    <t>P-value in BUN (using respective best setting)</t>
+    <t>P-value in phenotype indicated in column name (using respective best setting)</t>
   </si>
   <si>
     <t>P_oneSided_BUN</t>
   </si>
   <si>
-    <t>One-sided p-value in BUN (using respective best setting)</t>
-  </si>
-  <si>
-    <t>check_BUN</t>
-  </si>
-  <si>
-    <t>TRUE/FALSE flag indicating significant nominal association in BUN with discordant effect direction compared to eGFR (using respective best setting)</t>
-  </si>
-  <si>
-    <t>N_CKD</t>
-  </si>
-  <si>
-    <t>Sample size in CKD (using respective best setting)</t>
-  </si>
-  <si>
-    <t>EAF_CKD</t>
-  </si>
-  <si>
-    <t>Effect allele frequency in CKD (using respective best setting)</t>
-  </si>
-  <si>
-    <t>beta_CKD</t>
-  </si>
-  <si>
-    <t>Beta estimate in CKD (using respective best setting)</t>
-  </si>
-  <si>
-    <t>SE_CKD</t>
-  </si>
-  <si>
-    <t>Standard error in CKD (using respective best setting)</t>
-  </si>
-  <si>
-    <t>P_CKD</t>
-  </si>
-  <si>
-    <t>P-value in CKD (using respective best setting)</t>
-  </si>
-  <si>
-    <t>P_oneSided_CKD</t>
-  </si>
-  <si>
-    <t>One-sided p-value in CKD (using respective best setting)</t>
-  </si>
-  <si>
-    <t>check_CKD</t>
-  </si>
-  <si>
-    <t>TRUE/FALSE flag indicating significant nominal association in CKD with discordant effect direction compared to eGFR (using respective best setting)</t>
-  </si>
-  <si>
-    <t>N_UA</t>
-  </si>
-  <si>
-    <t>Sample size in UA (using respective best setting)</t>
-  </si>
-  <si>
-    <t>EAF_UA</t>
-  </si>
-  <si>
-    <t>Effect allele frequency in UA (using respective best setting)</t>
-  </si>
-  <si>
-    <t>beta_UA</t>
-  </si>
-  <si>
-    <t>Beta estimate in UA (using respective best setting)</t>
-  </si>
-  <si>
-    <t>SE_UA</t>
-  </si>
-  <si>
-    <t>Standard error in UA (using respective best setting)</t>
-  </si>
-  <si>
-    <t>P_UA</t>
-  </si>
-  <si>
-    <t>P-value in UA (using respective best setting)</t>
-  </si>
-  <si>
-    <t>N_Gout</t>
-  </si>
-  <si>
-    <t>EAF_Gout</t>
-  </si>
-  <si>
-    <t>Effect allele frequency in Gout (using respective best setting)</t>
-  </si>
-  <si>
-    <t>beta_Gout</t>
-  </si>
-  <si>
-    <t>Beta estimate in Gout (using respective best setting)</t>
-  </si>
-  <si>
-    <t>SE_Gout</t>
-  </si>
-  <si>
-    <t>Standard error in Gout (using respective best setting)</t>
-  </si>
-  <si>
-    <t>P_Gout</t>
-  </si>
-  <si>
-    <t>P-value in Gout (using respective best setting)</t>
-  </si>
-  <si>
-    <t>P_oneSided_Gout</t>
-  </si>
-  <si>
-    <t>One-sided p-value in Gout (using respective best setting)</t>
-  </si>
-  <si>
-    <t>check_Gout</t>
-  </si>
-  <si>
-    <t>TRUE/FALSE flag indicating significant nominal association in Gout compared to UA (using respective best setting)</t>
+    <t>One-sided p-value in phenotype indicated in column name (using respective best setting, not calculated for eGFR and UA)</t>
+  </si>
+  <si>
+    <t>check_BUN_eGFR</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE flag indicating significant nominal association in phenotype indicated in column name with discordant effect direction compared to eGFR (using respective best setting)</t>
+  </si>
+  <si>
+    <t>check_BUN_UA</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE flag indicating significant nominal association in phenotype indicated in column name with concordant effect direction compared to UA (using respective best setting)</t>
+  </si>
+  <si>
+    <t>eGFR_ALL</t>
+  </si>
+  <si>
+    <t>-log10 transformed p-value in phenotype indicated in column name and setting ALL (one-sided p-value for BUN, CKD, UACR, MA, and gout; two-sided for eGFR and UA)</t>
   </si>
   <si>
     <t>size.region</t>
   </si>
   <si>
-    <t>Range of tested region (not necessary centered around the index SNP)</t>
+    <t>Range of tested locus (not necessary centered around the index SNP)</t>
   </si>
   <si>
     <t>CredSetSize</t>
@@ -499,7 +375,7 @@
     <t>CredSet</t>
   </si>
   <si>
-    <t>ID of the credible set</t>
+    <t>ID of the credible set (locus number + independent signal incase of multiple signals at a locus)</t>
   </si>
   <si>
     <t>PostProb</t>
@@ -556,28 +432,28 @@
     <t>Effect allele frquency</t>
   </si>
   <si>
+    <t>nSamples</t>
+  </si>
+  <si>
+    <t>Weighted Imputation info score</t>
+  </si>
+  <si>
     <t>info</t>
   </si>
   <si>
-    <t>Weighted Imputation info score</t>
-  </si>
-  <si>
-    <t>nSamples</t>
-  </si>
-  <si>
     <t>Sample size per SNP</t>
   </si>
   <si>
-    <t>Beta estimate (conditional in case of region 9, 21, and 22 in setting ALL)</t>
-  </si>
-  <si>
-    <t>Standard error (conditional in case of region 9, 21, and 22 in setting ALL)</t>
+    <t>Beta estimate (conditional in case of locus 9, 21, and 22 in setting ALL)</t>
+  </si>
+  <si>
+    <t>Standard error (conditional in case of locus 9, 21, and 22 in setting ALL)</t>
   </si>
   <si>
     <t>logP</t>
   </si>
   <si>
-    <t>-log10 transformed p-value (conditional in case of region 9, 21, and 22 in setting ALL)</t>
+    <t>-log10 transformed p-value (conditional in case of locus 9, 21, and 22 in setting ALL)</t>
   </si>
   <si>
     <t>I2</t>
@@ -682,7 +558,7 @@
     <t>Analyzed tissue for gene expression</t>
   </si>
   <si>
-    <t>Number of SNPs included in co-localization analysis per region</t>
+    <t>Number of SNPs included in co-localization analysis per locus</t>
   </si>
   <si>
     <t>Posterior probability for hypothesis 1: only trait 1 associated (CKDGen)</t>
@@ -841,7 +717,7 @@
     <t>CHR_POS</t>
   </si>
   <si>
-    <t>Base position in looked-up study</t>
+    <t>Base position in looked-up study (hg38)</t>
   </si>
   <si>
     <t>STRONGEST SNP-RISK ALLELE</t>
@@ -872,6 +748,24 @@
   </si>
   <si>
     <t>Odds ratio, Z-score or beta estimate in looked-up study</t>
+  </si>
+  <si>
+    <t>Genomic cytoband of literature SNP</t>
+  </si>
+  <si>
+    <t>pos_hg19</t>
+  </si>
+  <si>
+    <t>Base position in our study (hg19)</t>
+  </si>
+  <si>
+    <t>litCanGene</t>
+  </si>
+  <si>
+    <t>Candidate Gene as reported in GWAS Catalog</t>
+  </si>
+  <si>
+    <t>Corresponding locus number in our analyses</t>
   </si>
   <si>
     <t>SNP_replicated</t>
@@ -1588,6 +1482,287 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B33"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1607,370 +1782,370 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
         <v>337</v>
-      </c>
-      <c r="B27" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2357,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2204,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2233,259 +2408,140 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B36"/>
+  <autoFilter ref="A1:B13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2509,39 +2565,39 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2554,98 +2610,98 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -2683,258 +2739,258 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2975,12 +3031,12 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2988,18 +3044,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3007,7 +3063,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3023,7 +3079,7 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3031,7 +3087,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3056,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -3080,47 +3136,47 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3128,127 +3184,127 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3257,9 +3313,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3278,463 +3334,222 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B24"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>323</v>
-      </c>
-      <c r="B16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>329</v>
-      </c>
-      <c r="B19" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" t="s">
-        <v>340</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>353</v>
-      </c>
-      <c r="B31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B32"/>
+  <autoFilter ref="A1:B28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>